--- a/2018/Thao Phuong/01 QL DonVi-ChiNhanh/SOF.QP.04.M05_CIF1122_Xem chi tiet don vi.xlsx
+++ b/2018/Thao Phuong/01 QL DonVi-ChiNhanh/SOF.QP.04.M05_CIF1122_Xem chi tiet don vi.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\01 QL DonVi-ChiNhanh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\01 QL DonVi-ChiNhanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="653" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8640" tabRatio="653" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Layout!$A$1:$K$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Optimize SQL'!$A$1:$K$49</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -658,11 +658,20 @@
   <si>
     <t>Bổ sung các Field Name</t>
   </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>Xem tài liệu</t>
+  </si>
+  <si>
+    <t>Reviewer: Phan thanh hoàng Vũ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1297,7 +1306,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1358,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1424,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1476,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1524,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1576,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1642,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1694,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1760,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1812,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1869,7 +1878,7 @@
         <xdr:cNvPr id="2" name="Picture 659" descr="Logo 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1921,7 +1930,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,6 +2052,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2078,6 +2104,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2259,8 +2302,8 @@
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2469,7 +2512,7 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="50"/>
@@ -2605,9 +2648,13 @@
         <v>117</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="K16" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -3661,7 +3708,7 @@
       <pane xSplit="5" ySplit="12" topLeftCell="I13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3859,7 +3906,7 @@
       <c r="J11" s="51"/>
       <c r="K11" s="50"/>
       <c r="L11" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="M11" s="51"/>
       <c r="N11" s="50"/>
@@ -4927,7 +4974,7 @@
       <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5133,7 +5180,7 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="50"/>
@@ -6252,8 +6299,8 @@
   </sheetPr>
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6462,7 +6509,7 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="50"/>
@@ -7022,9 +7069,13 @@
         <v>117</v>
       </c>
       <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -7700,10 +7751,10 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="14" topLeftCell="F27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="14" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7909,7 +7960,7 @@
       </c>
       <c r="H13" s="50"/>
       <c r="I13" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="J13" s="51"/>
       <c r="K13" s="50"/>
@@ -8922,8 +8973,8 @@
   </sheetPr>
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9119,7 +9170,7 @@
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="49" t="s">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I13" s="51"/>
       <c r="J13" s="50"/>
